--- a/face_list.xlsx
+++ b/face_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vicente/Desktop/Experiment/FaceSketchXAI/User study instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E27E5-7660-594C-A291-F693DC77A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C484A612-F5D6-F04B-AE91-2B3B1BC3687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="540" windowWidth="28040" windowHeight="17440" xr2:uid="{46FFF4C1-A05A-8D47-B113-EA1CCC339AD3}"/>
+    <workbookView xWindow="-32780" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{46FFF4C1-A05A-8D47-B113-EA1CCC339AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="face_list" sheetId="1" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D516D5E-2B43-7841-874A-CC45AADCBBF3}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/face_list.xlsx
+++ b/face_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vicente/Desktop/Experiment/FaceSketchXAI/User study instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C484A612-F5D6-F04B-AE91-2B3B1BC3687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361E860-39EA-AF4C-A65D-997712B17D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32780" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{46FFF4C1-A05A-8D47-B113-EA1CCC339AD3}"/>
+    <workbookView xWindow="14020" yWindow="5440" windowWidth="22880" windowHeight="15040" xr2:uid="{46FFF4C1-A05A-8D47-B113-EA1CCC339AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="face_list" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,12 +815,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1192,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D516D5E-2B43-7841-874A-CC45AADCBBF3}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,7 +1712,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
@@ -1894,21 +1902,15 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-      <c r="C71" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
@@ -1916,11 +1918,17 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">

--- a/face_list.xlsx
+++ b/face_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vicente/Desktop/Experiment/FaceSketchXAI/User study instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wencan/Dropbox/xai-inversion-defence/user study/User study instances v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361E860-39EA-AF4C-A65D-997712B17D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAFCC74-4F6F-404E-8688-4D43C5C53AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="5440" windowWidth="22880" windowHeight="15040" xr2:uid="{46FFF4C1-A05A-8D47-B113-EA1CCC339AD3}"/>
+    <workbookView xWindow="-16140" yWindow="4080" windowWidth="22880" windowHeight="15040" xr2:uid="{46FFF4C1-A05A-8D47-B113-EA1CCC339AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="face_list" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,8 +827,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1200,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D516D5E-2B43-7841-874A-CC45AADCBBF3}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1274,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -1304,7 +1310,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -1350,7 +1356,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
@@ -1380,7 +1386,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -1500,7 +1506,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
@@ -1568,7 +1574,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
@@ -1696,7 +1702,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
@@ -1704,7 +1710,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
@@ -1712,7 +1718,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
@@ -1774,7 +1780,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B58" t="s">
@@ -1812,7 +1818,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B62" t="s">
@@ -1902,7 +1908,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
@@ -1910,7 +1916,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
@@ -1984,7 +1990,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
